--- a/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
@@ -523,14 +523,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohammad Niam</t>
+          <t>Martin Guptill</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Martin Guptill</t>
+          <t>Mohammad Niam</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,14 +573,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Liton Das</t>
+          <t>Daryl Mitchell</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Daryl Mitchell</t>
+          <t>Liton Das</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -608,12 +608,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,14 +623,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shakib Al Hasan</t>
+          <t>Kane Williamson(C)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,14 +647,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Kane Williamson(C)</t>
+          <t>Shakib Al Hasan</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,14 +673,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mushfiqur Rahim</t>
+          <t>Devon Conway</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Devon Conway</t>
+          <t>Mushfiqur Rahim</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mahmudulla(C)</t>
+          <t>Glenn Phillips</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,14 +747,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Glenn Phillips</t>
+          <t>Mahmudulla(C)</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,14 +773,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Afif Hossain</t>
+          <t>James Neesham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>James Neesham</t>
+          <t>Afif Hossain</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,23 +823,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,23 +873,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,23 +947,23 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -973,14 +973,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,23 +997,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1023,14 +1023,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J16" t="n">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Balls</t>
+          <t>Overs</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>Balls</t>
+          <t>Overs</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1186,123 +1186,143 @@
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>Wickets</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>Economy</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>6</v>
+          <t>Adam Milne</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="L21" t="n">
+        <v>28</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>14</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>12</v>
+          <t>Mitchell Santner</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="L22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>13.67</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+          <t>Trent Boult</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
         <v>12</v>
-      </c>
-      <c r="L23" t="n">
-        <v>31</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1312,27 +1332,32 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>10.33</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>12</v>
+          <t>Tim Southee</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
       </c>
       <c r="L24" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
+      <c r="N24" t="n">
+        <v>16.33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1341,27 +1366,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>14.35</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>9</v>
+          <t>Ish Sodhi</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
       </c>
       <c r="L25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shoriful Islam</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,19 +601,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="K5" t="n">
+        <v>18</v>
+      </c>
+      <c r="L5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -734,12 +734,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,14 +851,14 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,14 +927,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="J16" t="n">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1197,201 +1197,201 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Ish Sodhi</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Mitchell Santner</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Adam Milne</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>31</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Trent Boult</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="L22" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>81</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Mitchell Santner</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>29</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Tim Southee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="L23" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>10.5</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>39</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Tim Southee</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Adam Milne</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
       <c r="L25" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>19.17</v>
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
+++ b/tournament/matches/Delhi_NewZealand_vs_RoyalChallengers_Bangladesh.xlsx
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -630,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahedi Hasan</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,14 +727,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,14 +777,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,14 +877,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Shoriful Islam</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1051,14 +1051,14 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J16" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1197,26 +1197,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1237,26 +1237,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1265,38 +1265,38 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>22.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20.25</v>
+        <v>13</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1305,93 +1305,93 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>11.33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>12.19</v>
+        <v>15.24</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>17.39</v>
+        <v>16.67</v>
       </c>
     </row>
   </sheetData>
